--- a/image-relationship/Missing Image Matches.xlsx
+++ b/image-relationship/Missing Image Matches.xlsx
@@ -380,8 +380,8 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="80.83203125" customWidth="1"/>
-    <col min="2" max="2" width="100.83203125" customWidth="1"/>
+    <col min="1" max="1" width="60.83203125" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
